--- a/data/XII-IIS-1.xlsx
+++ b/data/XII-IIS-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas Akhir\Development\New Develop\Aplikasi-Penilaian-Otomatis-Esai-BI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D657B7A-BF9D-470C-89E2-4180E850088B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE411B8C-E0FE-49E1-881C-E0599169B75C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,127 +670,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{EDF595D3-6887-44A9-9326-E602712E51B2}"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1189,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1804,6 +1684,9 @@
       <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
+        <v>35</v>
+      </c>
       <c r="B51" s="29" t="s">
         <v>55</v>
       </c>
@@ -1814,6 +1697,9 @@
       <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
+        <v>36</v>
+      </c>
       <c r="B52" s="28" t="s">
         <v>56</v>
       </c>
@@ -1828,6 +1714,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
+        <v>37</v>
+      </c>
       <c r="B53" s="26" t="s">
         <v>57</v>
       </c>
@@ -1838,6 +1727,9 @@
       <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="21">
+        <v>38</v>
+      </c>
       <c r="B54" s="26" t="s">
         <v>58</v>
       </c>
@@ -2180,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2795,6 +2687,9 @@
       <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
+        <v>35</v>
+      </c>
       <c r="B51" s="31" t="s">
         <v>55</v>
       </c>
@@ -2805,6 +2700,9 @@
       <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
+        <v>36</v>
+      </c>
       <c r="B52" s="28" t="s">
         <v>56</v>
       </c>
@@ -2819,6 +2717,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
+        <v>37</v>
+      </c>
       <c r="B53" s="26" t="s">
         <v>57</v>
       </c>
@@ -2829,6 +2730,9 @@
       <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A54" s="21">
+        <v>38</v>
+      </c>
       <c r="B54" s="26" t="s">
         <v>58</v>
       </c>
@@ -2838,7 +2742,9 @@
       <c r="D54" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="25"/>
+      <c r="E54" s="25">
+        <v>40</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" s="24"/>
